--- a/results/xlsx_reports/Rastrigin_WOA.xlsx
+++ b/results/xlsx_reports/Rastrigin_WOA.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.3714504320277221</v>
+      </c>
+      <c r="C3" t="n">
         <v>9.436281997569752</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3714504320277221</v>
       </c>
       <c r="D3" t="n">
         <v>149.3091978590974</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1.771699426839913</v>
+      </c>
+      <c r="C4" t="n">
         <v>30.42770283463574</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.771699426839913</v>
       </c>
       <c r="D4" t="n">
         <v>222.1870392802124</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.6291439173363591</v>
+      </c>
+      <c r="C5" t="n">
         <v>9.428430524994498</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6291439173363591</v>
       </c>
       <c r="D5" t="n">
         <v>53.987315497878</v>
